--- a/public/files/任务承接明细表.xlsx
+++ b/public/files/任务承接明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>承接人姓名</t>
   </si>
   <si>
     <t>承接人证件号码</t>
-  </si>
-  <si>
-    <t>承接人手机号</t>
-  </si>
-  <si>
-    <t>银行名称</t>
-  </si>
-  <si>
-    <t>承接人银行卡号</t>
   </si>
   <si>
     <t>任务金额（元）</t>
@@ -45,17 +36,11 @@
   <si>
     <t>340823198305205222</t>
   </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>6222020200039490222</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -78,6 +63,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -91,6 +104,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,14 +156,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +164,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +172,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,21 +187,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -195,28 +201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +216,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,24 +282,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,18 +330,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,36 +342,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,24 +366,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,12 +385,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +407,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,21 +454,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,148 +512,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -688,52 +673,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1004,24 +989,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="26.3416666666667" customWidth="1"/>
-    <col min="3" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="21.425" customWidth="1"/>
-    <col min="6" max="6" width="16.2166666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="13.9833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.2166666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="13.9833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,39 +1020,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C2">
-        <v>15542143422</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
         <v>10000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="D2" s="2">
         <v>43831</v>
       </c>
-      <c r="H2" s="2">
+      <c r="E2" s="2">
         <v>43891</v>
       </c>
     </row>

--- a/public/files/任务承接明细表.xlsx
+++ b/public/files/任务承接明细表.xlsx
@@ -41,11 +41,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -664,7 +665,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -991,8 +992,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1000,8 +1001,8 @@
     <col min="1" max="1" width="13.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="26.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="16.2166666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="13.9833333333333" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1035,7 +1036,7 @@
         <v>43831</v>
       </c>
       <c r="E2" s="2">
-        <v>43891</v>
+        <v>43891.9999884259</v>
       </c>
     </row>
   </sheetData>
